--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C2CD4-A42E-4787-B0C0-7C812D35E45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="6345"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Misc" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Applicant_Type</t>
   </si>
@@ -62,13 +62,40 @@
   </si>
   <si>
     <t>Investment</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>479000</t>
+  </si>
+  <si>
+    <t>Based on the details you've entered, we're unable to give you an estimate of your borrowing power with this calculator. For questions, call us on 1800 035 500.</t>
+  </si>
+  <si>
+    <t>Error Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +124,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -151,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,26 +464,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,103 +518,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
-        <v>80000</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>10000</v>
-      </c>
-      <c r="K2">
-        <v>470000</v>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>80000</v>
-      </c>
-      <c r="E3">
-        <v>10000</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>10000</v>
-      </c>
-      <c r="K3">
-        <v>479000</v>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="anupkumarprasad522@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="anupkumarprasad522@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="132.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
